--- a/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ateuc\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EAAD2F-7C34-4E37-95B5-96DDA40D841F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>Stunden</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Art</t>
   </si>
@@ -64,12 +62,24 @@
   <si>
     <t>Erstellung Dokument zu Organisation und Infrastruktur, Erstellung Dokument Funktionen</t>
   </si>
+  <si>
+    <t>Zeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stunden </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeiterfassung und Projekttagebuch anpassen </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +127,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -141,10 +158,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -183,8 +201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -223,17 +249,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle3" displayName="Tabelle3" ref="B6:G46" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B6:G46"/>
-  <tableColumns count="6">
-    <tableColumn id="2" name="Art"/>
-    <tableColumn id="3" name="Beschreibung"/>
-    <tableColumn id="8" name="Datum"/>
-    <tableColumn id="4" name="von"/>
-    <tableColumn id="5" name="bis"/>
-    <tableColumn id="6" name="Stunden" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle3" displayName="Tabelle3" ref="B6:H46" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B6:H46" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Art"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Beschreibung"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Datum"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="von"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="bis"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Zeit" dataDxfId="0">
       <calculatedColumnFormula>F7-E7</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="1" xr3:uid="{B2B46871-B0AB-499F-9DED-A21DC45F638A}" name="Stunden " dataCellStyle="Komma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -535,11 +562,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G231"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,52 +577,56 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:8" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="F6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>8</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
       </c>
       <c r="D7" s="11">
         <v>43171</v>
@@ -610,13 +641,16 @@
         <f t="shared" ref="G7:G45" si="0">F7-E7</f>
         <v>7.291666666666663E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="20">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
       </c>
       <c r="D8" s="11">
         <v>43178</v>
@@ -631,13 +665,16 @@
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="20">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="11">
         <v>43178</v>
@@ -652,16 +689,36 @@
         <f t="shared" si="0"/>
         <v>0.11458333333333337</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="H9" s="20">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="11">
+        <v>43198</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="G10" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+      <c r="H10" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="11"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="7">
@@ -669,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7">
@@ -677,7 +734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="7">
@@ -685,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="7">
@@ -693,7 +750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7">
@@ -701,7 +758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7">
@@ -837,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
       <c r="G33" s="7">
@@ -845,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7">
@@ -853,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7">
@@ -861,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7">
@@ -869,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7">
@@ -877,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="7">
@@ -885,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="7">
@@ -893,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="7">
@@ -901,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="7">
@@ -909,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7">
@@ -917,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="7">
@@ -925,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7">
@@ -933,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="7">
@@ -941,20 +998,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="10">
-        <f>SUM(G7:G45)</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="10"/>
+      <c r="H46" s="22">
+        <f>SUM(H7:H45)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2553,9 +2611,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="G46" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EAAD2F-7C34-4E37-95B5-96DDA40D841F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D11E58-D9E7-4474-8699-0DB66BB16D65}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Art</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t xml:space="preserve">Zeiterfassung und Projekttagebuch anpassen </t>
+  </si>
+  <si>
+    <t>Testen</t>
+  </si>
+  <si>
+    <t>Überlegung und Erstellung der Testfälle</t>
   </si>
 </sst>
 </file>
@@ -565,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,20 +724,51 @@
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D11" s="11"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="11">
+        <v>43202</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="G11" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
+      </c>
+      <c r="H11" s="20">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11">
+        <v>43202</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="G12" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="H12" s="20">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -1009,7 +1046,7 @@
       <c r="G46" s="10"/>
       <c r="H46" s="22">
         <f>SUM(H7:H45)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6D2F8C-9545-409F-8348-3B38376A7F57}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C29B0A-A59F-461E-AA05-31FE819AC1E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Art</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>Gruppen Meeting</t>
+  </si>
+  <si>
+    <t>Testfälle erstellt</t>
+  </si>
+  <si>
+    <t>Testfälle durchgeführt</t>
+  </si>
+  <si>
+    <t>Tests Dokumentation</t>
   </si>
 </sst>
 </file>
@@ -206,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -270,6 +279,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -628,7 +640,7 @@
   <dimension ref="A2:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17:J18"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,30 +900,78 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="10">
+        <v>43203</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="H15" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10">
+        <v>43203</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="F16" s="33">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+        <v>0.15625</v>
+      </c>
+      <c r="H16" s="19">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="10">
+        <v>43203</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.88541666666666663</v>
+      </c>
       <c r="G17" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+        <v>0.13541666666666663</v>
+      </c>
+      <c r="H17" s="19">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6">
@@ -919,7 +979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6">
@@ -927,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6">
@@ -935,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6">
@@ -943,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6">
@@ -951,7 +1011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6">
@@ -959,7 +1019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6">
@@ -967,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6">
@@ -975,7 +1035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6">
@@ -983,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="6">
@@ -991,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6">
@@ -999,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="6">
@@ -1007,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6">
@@ -1015,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6">
@@ -1023,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6">
@@ -1154,7 +1214,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="20">
         <f>SUM(H7:H46)</f>
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C29B0A-A59F-461E-AA05-31FE819AC1E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1AE655-9534-4BC8-B86A-46F1AC9E901B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Art</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Tests Dokumentation</t>
+  </si>
+  <si>
+    <t>Ausarbeitung der Grundfunktionen: Sollzeit/Istzeiterfassung</t>
+  </si>
+  <si>
+    <t>Ausarbeitung Grundfunktionen</t>
   </si>
 </sst>
 </file>
@@ -640,39 +646,39 @@
   <dimension ref="A2:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="81.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="81.5546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,7 +702,7 @@
       </c>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="24" t="s">
         <v>9</v>
       </c>
@@ -724,7 +730,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -751,7 +757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="24" t="s">
         <v>9</v>
       </c>
@@ -777,7 +783,7 @@
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="21"/>
@@ -795,7 +801,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
         <v>9</v>
@@ -824,7 +830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -851,7 +857,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -875,7 +881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -899,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -923,7 +929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -947,7 +953,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -971,15 +977,31 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="10">
+        <v>43205</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="G18" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+      <c r="H18" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6">
@@ -987,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6">
@@ -995,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6">
@@ -1003,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6">
@@ -1011,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6">
@@ -1019,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6">
@@ -1027,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6">
@@ -1035,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6">
@@ -1043,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="6">
@@ -1051,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6">
@@ -1059,7 +1081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="6">
@@ -1067,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6">
@@ -1075,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6">
@@ -1083,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6">
@@ -1091,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="6">
@@ -1099,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6">
@@ -1107,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="6">
@@ -1115,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6">
@@ -1123,7 +1145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6">
@@ -1131,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="6">
@@ -1139,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6">
@@ -1147,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="6">
@@ -1155,7 +1177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6">
@@ -1163,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="6">
@@ -1171,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="6">
@@ -1179,7 +1201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="6">
@@ -1187,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6">
@@ -1195,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="6">
@@ -1203,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>6</v>
       </c>
@@ -1214,13 +1236,13 @@
       <c r="G47" s="9"/>
       <c r="H47" s="20">
         <f>SUM(H7:H46)</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1229,7 +1251,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
       <c r="C50" s="11"/>
@@ -1238,7 +1260,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1247,7 +1269,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="11"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -1256,7 +1278,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1265,7 +1287,7 @@
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1274,7 +1296,7 @@
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1283,7 +1305,7 @@
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1292,7 +1314,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1301,7 +1323,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="16"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1310,7 +1332,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1319,7 +1341,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="16"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -1328,7 +1350,7 @@
       <c r="F60" s="17"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -1337,7 +1359,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="16"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -1346,7 +1368,7 @@
       <c r="F62" s="17"/>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -1355,7 +1377,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="16"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -1364,7 +1386,7 @@
       <c r="F64" s="17"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -1373,7 +1395,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -1382,7 +1404,7 @@
       <c r="F66" s="17"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -1391,7 +1413,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="16"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -1400,7 +1422,7 @@
       <c r="F68" s="17"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -1409,7 +1431,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1418,7 +1440,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -1427,7 +1449,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="16"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -1436,7 +1458,7 @@
       <c r="F72" s="17"/>
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -1445,7 +1467,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="16"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -1454,7 +1476,7 @@
       <c r="F74" s="17"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -1463,7 +1485,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="16"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1472,7 +1494,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="16"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -1481,7 +1503,7 @@
       <c r="F77" s="17"/>
       <c r="G77" s="16"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1490,7 +1512,7 @@
       <c r="F78" s="17"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -1499,7 +1521,7 @@
       <c r="F79" s="17"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -1508,7 +1530,7 @@
       <c r="F80" s="17"/>
       <c r="G80" s="16"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -1517,7 +1539,7 @@
       <c r="F81" s="17"/>
       <c r="G81" s="16"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -1526,7 +1548,7 @@
       <c r="F82" s="17"/>
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -1535,7 +1557,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="16"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -1544,7 +1566,7 @@
       <c r="F84" s="17"/>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -1553,7 +1575,7 @@
       <c r="F85" s="17"/>
       <c r="G85" s="16"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -1562,7 +1584,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="16"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -1571,7 +1593,7 @@
       <c r="F87" s="17"/>
       <c r="G87" s="16"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -1580,7 +1602,7 @@
       <c r="F88" s="17"/>
       <c r="G88" s="16"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -1589,7 +1611,7 @@
       <c r="F89" s="17"/>
       <c r="G89" s="16"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -1598,7 +1620,7 @@
       <c r="F90" s="17"/>
       <c r="G90" s="16"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -1607,7 +1629,7 @@
       <c r="F91" s="17"/>
       <c r="G91" s="16"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="11"/>
       <c r="B92" s="18"/>
       <c r="C92" s="11"/>
@@ -1616,7 +1638,7 @@
       <c r="F92" s="11"/>
       <c r="G92" s="16"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -1625,7 +1647,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -1634,7 +1656,7 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="11"/>
       <c r="B95" s="12"/>
       <c r="C95" s="11"/>
@@ -1643,7 +1665,7 @@
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -1652,7 +1674,7 @@
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A97" s="11"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -1661,7 +1683,7 @@
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -1670,7 +1692,7 @@
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -1679,7 +1701,7 @@
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -1688,7 +1710,7 @@
       <c r="F100" s="17"/>
       <c r="G100" s="16"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -1697,7 +1719,7 @@
       <c r="F101" s="17"/>
       <c r="G101" s="16"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -1706,7 +1728,7 @@
       <c r="F102" s="17"/>
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -1715,7 +1737,7 @@
       <c r="F103" s="17"/>
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -1724,7 +1746,7 @@
       <c r="F104" s="17"/>
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -1733,7 +1755,7 @@
       <c r="F105" s="17"/>
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -1742,7 +1764,7 @@
       <c r="F106" s="17"/>
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -1751,7 +1773,7 @@
       <c r="F107" s="17"/>
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -1760,7 +1782,7 @@
       <c r="F108" s="17"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -1769,7 +1791,7 @@
       <c r="F109" s="17"/>
       <c r="G109" s="16"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -1778,7 +1800,7 @@
       <c r="F110" s="17"/>
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -1787,7 +1809,7 @@
       <c r="F111" s="17"/>
       <c r="G111" s="16"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -1796,7 +1818,7 @@
       <c r="F112" s="17"/>
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -1805,7 +1827,7 @@
       <c r="F113" s="17"/>
       <c r="G113" s="16"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -1814,7 +1836,7 @@
       <c r="F114" s="17"/>
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -1823,7 +1845,7 @@
       <c r="F115" s="17"/>
       <c r="G115" s="16"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -1832,7 +1854,7 @@
       <c r="F116" s="17"/>
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -1841,7 +1863,7 @@
       <c r="F117" s="17"/>
       <c r="G117" s="16"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -1850,7 +1872,7 @@
       <c r="F118" s="17"/>
       <c r="G118" s="16"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -1859,7 +1881,7 @@
       <c r="F119" s="17"/>
       <c r="G119" s="16"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -1868,7 +1890,7 @@
       <c r="F120" s="17"/>
       <c r="G120" s="16"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -1877,7 +1899,7 @@
       <c r="F121" s="17"/>
       <c r="G121" s="16"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -1886,7 +1908,7 @@
       <c r="F122" s="17"/>
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -1895,7 +1917,7 @@
       <c r="F123" s="17"/>
       <c r="G123" s="16"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -1904,7 +1926,7 @@
       <c r="F124" s="17"/>
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -1913,7 +1935,7 @@
       <c r="F125" s="17"/>
       <c r="G125" s="16"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -1922,7 +1944,7 @@
       <c r="F126" s="17"/>
       <c r="G126" s="16"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -1931,7 +1953,7 @@
       <c r="F127" s="17"/>
       <c r="G127" s="16"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -1940,7 +1962,7 @@
       <c r="F128" s="17"/>
       <c r="G128" s="16"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -1949,7 +1971,7 @@
       <c r="F129" s="17"/>
       <c r="G129" s="16"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -1958,7 +1980,7 @@
       <c r="F130" s="17"/>
       <c r="G130" s="16"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -1967,7 +1989,7 @@
       <c r="F131" s="17"/>
       <c r="G131" s="16"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -1976,7 +1998,7 @@
       <c r="F132" s="17"/>
       <c r="G132" s="16"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -1985,7 +2007,7 @@
       <c r="F133" s="17"/>
       <c r="G133" s="16"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -1994,7 +2016,7 @@
       <c r="F134" s="17"/>
       <c r="G134" s="16"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -2003,7 +2025,7 @@
       <c r="F135" s="17"/>
       <c r="G135" s="16"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -2012,7 +2034,7 @@
       <c r="F136" s="17"/>
       <c r="G136" s="16"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A137" s="11"/>
       <c r="B137" s="18"/>
       <c r="C137" s="11"/>
@@ -2021,7 +2043,7 @@
       <c r="F137" s="11"/>
       <c r="G137" s="16"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -2030,7 +2052,7 @@
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -2039,7 +2061,7 @@
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
     </row>
-    <row r="140" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A140" s="11"/>
       <c r="B140" s="12"/>
       <c r="C140" s="11"/>
@@ -2048,7 +2070,7 @@
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -2057,7 +2079,7 @@
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
     </row>
-    <row r="142" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="11"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -2066,7 +2088,7 @@
       <c r="F142" s="14"/>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -2075,7 +2097,7 @@
       <c r="F143" s="16"/>
       <c r="G143" s="16"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -2084,7 +2106,7 @@
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -2093,7 +2115,7 @@
       <c r="F145" s="16"/>
       <c r="G145" s="16"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -2102,7 +2124,7 @@
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -2111,7 +2133,7 @@
       <c r="F147" s="16"/>
       <c r="G147" s="16"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -2120,7 +2142,7 @@
       <c r="F148" s="17"/>
       <c r="G148" s="16"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -2129,7 +2151,7 @@
       <c r="F149" s="17"/>
       <c r="G149" s="16"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -2138,7 +2160,7 @@
       <c r="F150" s="17"/>
       <c r="G150" s="16"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -2147,7 +2169,7 @@
       <c r="F151" s="17"/>
       <c r="G151" s="16"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -2156,7 +2178,7 @@
       <c r="F152" s="17"/>
       <c r="G152" s="16"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -2165,7 +2187,7 @@
       <c r="F153" s="17"/>
       <c r="G153" s="16"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -2174,7 +2196,7 @@
       <c r="F154" s="17"/>
       <c r="G154" s="16"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -2183,7 +2205,7 @@
       <c r="F155" s="17"/>
       <c r="G155" s="16"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -2192,7 +2214,7 @@
       <c r="F156" s="17"/>
       <c r="G156" s="16"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -2201,7 +2223,7 @@
       <c r="F157" s="17"/>
       <c r="G157" s="16"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -2210,7 +2232,7 @@
       <c r="F158" s="17"/>
       <c r="G158" s="16"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -2219,7 +2241,7 @@
       <c r="F159" s="17"/>
       <c r="G159" s="16"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -2228,7 +2250,7 @@
       <c r="F160" s="17"/>
       <c r="G160" s="16"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -2237,7 +2259,7 @@
       <c r="F161" s="17"/>
       <c r="G161" s="16"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -2246,7 +2268,7 @@
       <c r="F162" s="17"/>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -2255,7 +2277,7 @@
       <c r="F163" s="17"/>
       <c r="G163" s="16"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -2264,7 +2286,7 @@
       <c r="F164" s="17"/>
       <c r="G164" s="16"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -2273,7 +2295,7 @@
       <c r="F165" s="17"/>
       <c r="G165" s="16"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -2282,7 +2304,7 @@
       <c r="F166" s="17"/>
       <c r="G166" s="16"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -2291,7 +2313,7 @@
       <c r="F167" s="17"/>
       <c r="G167" s="16"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -2300,7 +2322,7 @@
       <c r="F168" s="17"/>
       <c r="G168" s="16"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -2309,7 +2331,7 @@
       <c r="F169" s="17"/>
       <c r="G169" s="16"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -2318,7 +2340,7 @@
       <c r="F170" s="17"/>
       <c r="G170" s="16"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -2327,7 +2349,7 @@
       <c r="F171" s="17"/>
       <c r="G171" s="16"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -2336,7 +2358,7 @@
       <c r="F172" s="17"/>
       <c r="G172" s="16"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -2345,7 +2367,7 @@
       <c r="F173" s="17"/>
       <c r="G173" s="16"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -2354,7 +2376,7 @@
       <c r="F174" s="17"/>
       <c r="G174" s="16"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -2363,7 +2385,7 @@
       <c r="F175" s="17"/>
       <c r="G175" s="16"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -2372,7 +2394,7 @@
       <c r="F176" s="17"/>
       <c r="G176" s="16"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -2381,7 +2403,7 @@
       <c r="F177" s="17"/>
       <c r="G177" s="16"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -2390,7 +2412,7 @@
       <c r="F178" s="17"/>
       <c r="G178" s="16"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -2399,7 +2421,7 @@
       <c r="F179" s="17"/>
       <c r="G179" s="16"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -2408,7 +2430,7 @@
       <c r="F180" s="17"/>
       <c r="G180" s="16"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -2417,7 +2439,7 @@
       <c r="F181" s="17"/>
       <c r="G181" s="16"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A182" s="11"/>
       <c r="B182" s="18"/>
       <c r="C182" s="11"/>
@@ -2426,7 +2448,7 @@
       <c r="F182" s="11"/>
       <c r="G182" s="16"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -2435,7 +2457,7 @@
       <c r="F183" s="11"/>
       <c r="G183" s="11"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -2444,7 +2466,7 @@
       <c r="F184" s="11"/>
       <c r="G184" s="11"/>
     </row>
-    <row r="185" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A185" s="11"/>
       <c r="B185" s="12"/>
       <c r="C185" s="11"/>
@@ -2453,7 +2475,7 @@
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -2462,7 +2484,7 @@
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
     </row>
-    <row r="187" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A187" s="11"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -2471,7 +2493,7 @@
       <c r="F187" s="14"/>
       <c r="G187" s="14"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -2480,7 +2502,7 @@
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -2489,7 +2511,7 @@
       <c r="F189" s="16"/>
       <c r="G189" s="16"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -2498,7 +2520,7 @@
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -2507,7 +2529,7 @@
       <c r="F191" s="17"/>
       <c r="G191" s="16"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -2516,7 +2538,7 @@
       <c r="F192" s="17"/>
       <c r="G192" s="16"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -2525,7 +2547,7 @@
       <c r="F193" s="17"/>
       <c r="G193" s="16"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -2534,7 +2556,7 @@
       <c r="F194" s="17"/>
       <c r="G194" s="16"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -2543,7 +2565,7 @@
       <c r="F195" s="17"/>
       <c r="G195" s="16"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -2552,7 +2574,7 @@
       <c r="F196" s="17"/>
       <c r="G196" s="16"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -2561,7 +2583,7 @@
       <c r="F197" s="17"/>
       <c r="G197" s="16"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -2570,7 +2592,7 @@
       <c r="F198" s="17"/>
       <c r="G198" s="16"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -2579,7 +2601,7 @@
       <c r="F199" s="17"/>
       <c r="G199" s="16"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -2588,7 +2610,7 @@
       <c r="F200" s="17"/>
       <c r="G200" s="16"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -2597,7 +2619,7 @@
       <c r="F201" s="17"/>
       <c r="G201" s="16"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -2606,7 +2628,7 @@
       <c r="F202" s="17"/>
       <c r="G202" s="16"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -2615,7 +2637,7 @@
       <c r="F203" s="17"/>
       <c r="G203" s="16"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -2624,7 +2646,7 @@
       <c r="F204" s="17"/>
       <c r="G204" s="16"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -2633,7 +2655,7 @@
       <c r="F205" s="17"/>
       <c r="G205" s="16"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -2642,7 +2664,7 @@
       <c r="F206" s="17"/>
       <c r="G206" s="16"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -2651,7 +2673,7 @@
       <c r="F207" s="17"/>
       <c r="G207" s="16"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -2660,7 +2682,7 @@
       <c r="F208" s="17"/>
       <c r="G208" s="16"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -2669,7 +2691,7 @@
       <c r="F209" s="17"/>
       <c r="G209" s="16"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -2678,7 +2700,7 @@
       <c r="F210" s="17"/>
       <c r="G210" s="16"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -2687,7 +2709,7 @@
       <c r="F211" s="17"/>
       <c r="G211" s="16"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -2696,7 +2718,7 @@
       <c r="F212" s="17"/>
       <c r="G212" s="16"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -2705,7 +2727,7 @@
       <c r="F213" s="17"/>
       <c r="G213" s="16"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -2714,7 +2736,7 @@
       <c r="F214" s="17"/>
       <c r="G214" s="16"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -2723,7 +2745,7 @@
       <c r="F215" s="17"/>
       <c r="G215" s="16"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -2732,7 +2754,7 @@
       <c r="F216" s="17"/>
       <c r="G216" s="16"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -2741,7 +2763,7 @@
       <c r="F217" s="17"/>
       <c r="G217" s="16"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -2750,7 +2772,7 @@
       <c r="F218" s="17"/>
       <c r="G218" s="16"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -2759,7 +2781,7 @@
       <c r="F219" s="17"/>
       <c r="G219" s="16"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -2768,7 +2790,7 @@
       <c r="F220" s="17"/>
       <c r="G220" s="16"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -2777,7 +2799,7 @@
       <c r="F221" s="17"/>
       <c r="G221" s="16"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -2786,31 +2808,31 @@
       <c r="F222" s="17"/>
       <c r="G222" s="16"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A223" s="11"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="11"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="11"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="11"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="11"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomic\Documents\GitHub\259035_SoftEngPR-Base\Dokumente\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1AE655-9534-4BC8-B86A-46F1AC9E901B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CDDBB4-09B2-4997-BE1A-6AF126C914A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Art</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Ausarbeitung Grundfunktionen</t>
+  </si>
+  <si>
+    <t>KW16</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -286,6 +289,9 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -646,39 +652,39 @@
   <dimension ref="A2:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="81.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="81.5703125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.88671875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +708,7 @@
       </c>
       <c r="I6" s="25"/>
     </row>
-    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
         <v>9</v>
       </c>
@@ -730,7 +736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>9</v>
       </c>
@@ -757,7 +763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="24" t="s">
         <v>9</v>
       </c>
@@ -783,7 +789,7 @@
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="21"/>
@@ -801,7 +807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25"/>
       <c r="B11" s="29" t="s">
         <v>9</v>
@@ -830,7 +836,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>9</v>
       </c>
@@ -857,7 +863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>15</v>
       </c>
@@ -881,7 +887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>9</v>
       </c>
@@ -905,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
@@ -929,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>15</v>
       </c>
@@ -953,7 +959,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -977,39 +983,60 @@
         <v>3.25</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="18" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="21">
         <v>43205</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="22">
         <v>0.54166666666666663</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="22">
         <v>0.66666666666666663</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="22">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="23">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="34">
+        <v>43206</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.73958333333333337</v>
+      </c>
       <c r="G19" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+        <v>6.25E-2</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="J19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="6">
@@ -1017,7 +1044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6">
@@ -1025,7 +1052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6">
@@ -1033,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6">
@@ -1041,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6">
@@ -1049,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="6">
@@ -1057,7 +1084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6">
@@ -1065,7 +1092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="6">
@@ -1073,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6">
@@ -1081,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="6">
@@ -1089,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6">
@@ -1097,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6">
@@ -1105,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6">
@@ -1113,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="6">
@@ -1121,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6">
@@ -1129,7 +1156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
       <c r="G35" s="6">
@@ -1137,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6">
@@ -1145,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6">
@@ -1153,7 +1180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E38" s="5"/>
       <c r="F38" s="5"/>
       <c r="G38" s="6">
@@ -1161,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6">
@@ -1169,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="6">
@@ -1177,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6">
@@ -1185,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E42" s="5"/>
       <c r="F42" s="5"/>
       <c r="G42" s="6">
@@ -1193,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="6">
@@ -1201,7 +1228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="6">
@@ -1209,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6">
@@ -1217,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
       <c r="G46" s="6">
@@ -1225,7 +1252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B47" s="7" t="s">
         <v>6</v>
       </c>
@@ -1236,13 +1263,13 @@
       <c r="G47" s="9"/>
       <c r="H47" s="20">
         <f>SUM(H7:H46)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -1251,7 +1278,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
-    <row r="50" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
       <c r="C50" s="11"/>
@@ -1260,7 +1287,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1269,7 +1296,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
-    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -1278,7 +1305,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="14"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -1287,7 +1314,7 @@
       <c r="F53" s="16"/>
       <c r="G53" s="16"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -1296,7 +1323,7 @@
       <c r="F54" s="16"/>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -1305,7 +1332,7 @@
       <c r="F55" s="16"/>
       <c r="G55" s="16"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -1314,7 +1341,7 @@
       <c r="F56" s="17"/>
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -1323,7 +1350,7 @@
       <c r="F57" s="17"/>
       <c r="G57" s="16"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -1332,7 +1359,7 @@
       <c r="F58" s="17"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -1341,7 +1368,7 @@
       <c r="F59" s="17"/>
       <c r="G59" s="16"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -1350,7 +1377,7 @@
       <c r="F60" s="17"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -1359,7 +1386,7 @@
       <c r="F61" s="17"/>
       <c r="G61" s="16"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -1368,7 +1395,7 @@
       <c r="F62" s="17"/>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -1377,7 +1404,7 @@
       <c r="F63" s="17"/>
       <c r="G63" s="16"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -1386,7 +1413,7 @@
       <c r="F64" s="17"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -1395,7 +1422,7 @@
       <c r="F65" s="17"/>
       <c r="G65" s="16"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -1404,7 +1431,7 @@
       <c r="F66" s="17"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -1413,7 +1440,7 @@
       <c r="F67" s="17"/>
       <c r="G67" s="16"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -1422,7 +1449,7 @@
       <c r="F68" s="17"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -1431,7 +1458,7 @@
       <c r="F69" s="17"/>
       <c r="G69" s="16"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -1440,7 +1467,7 @@
       <c r="F70" s="17"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -1449,7 +1476,7 @@
       <c r="F71" s="17"/>
       <c r="G71" s="16"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -1458,7 +1485,7 @@
       <c r="F72" s="17"/>
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -1467,7 +1494,7 @@
       <c r="F73" s="17"/>
       <c r="G73" s="16"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -1476,7 +1503,7 @@
       <c r="F74" s="17"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -1485,7 +1512,7 @@
       <c r="F75" s="17"/>
       <c r="G75" s="16"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -1494,7 +1521,7 @@
       <c r="F76" s="17"/>
       <c r="G76" s="16"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -1503,7 +1530,7 @@
       <c r="F77" s="17"/>
       <c r="G77" s="16"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -1512,7 +1539,7 @@
       <c r="F78" s="17"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -1521,7 +1548,7 @@
       <c r="F79" s="17"/>
       <c r="G79" s="16"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -1530,7 +1557,7 @@
       <c r="F80" s="17"/>
       <c r="G80" s="16"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -1539,7 +1566,7 @@
       <c r="F81" s="17"/>
       <c r="G81" s="16"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -1548,7 +1575,7 @@
       <c r="F82" s="17"/>
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -1557,7 +1584,7 @@
       <c r="F83" s="17"/>
       <c r="G83" s="16"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -1566,7 +1593,7 @@
       <c r="F84" s="17"/>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -1575,7 +1602,7 @@
       <c r="F85" s="17"/>
       <c r="G85" s="16"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -1584,7 +1611,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="16"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -1593,7 +1620,7 @@
       <c r="F87" s="17"/>
       <c r="G87" s="16"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -1602,7 +1629,7 @@
       <c r="F88" s="17"/>
       <c r="G88" s="16"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -1611,7 +1638,7 @@
       <c r="F89" s="17"/>
       <c r="G89" s="16"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -1620,7 +1647,7 @@
       <c r="F90" s="17"/>
       <c r="G90" s="16"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -1629,7 +1656,7 @@
       <c r="F91" s="17"/>
       <c r="G91" s="16"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="18"/>
       <c r="C92" s="11"/>
@@ -1638,7 +1665,7 @@
       <c r="F92" s="11"/>
       <c r="G92" s="16"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -1647,7 +1674,7 @@
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -1656,7 +1683,7 @@
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
     </row>
-    <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="11"/>
       <c r="B95" s="12"/>
       <c r="C95" s="11"/>
@@ -1665,7 +1692,7 @@
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -1674,7 +1701,7 @@
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
     </row>
-    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -1683,7 +1710,7 @@
       <c r="F97" s="14"/>
       <c r="G97" s="14"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -1692,7 +1719,7 @@
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -1701,7 +1728,7 @@
       <c r="F99" s="16"/>
       <c r="G99" s="16"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -1710,7 +1737,7 @@
       <c r="F100" s="17"/>
       <c r="G100" s="16"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -1719,7 +1746,7 @@
       <c r="F101" s="17"/>
       <c r="G101" s="16"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -1728,7 +1755,7 @@
       <c r="F102" s="17"/>
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -1737,7 +1764,7 @@
       <c r="F103" s="17"/>
       <c r="G103" s="16"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -1746,7 +1773,7 @@
       <c r="F104" s="17"/>
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -1755,7 +1782,7 @@
       <c r="F105" s="17"/>
       <c r="G105" s="16"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -1764,7 +1791,7 @@
       <c r="F106" s="17"/>
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -1773,7 +1800,7 @@
       <c r="F107" s="17"/>
       <c r="G107" s="16"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -1782,7 +1809,7 @@
       <c r="F108" s="17"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -1791,7 +1818,7 @@
       <c r="F109" s="17"/>
       <c r="G109" s="16"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -1800,7 +1827,7 @@
       <c r="F110" s="17"/>
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -1809,7 +1836,7 @@
       <c r="F111" s="17"/>
       <c r="G111" s="16"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -1818,7 +1845,7 @@
       <c r="F112" s="17"/>
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -1827,7 +1854,7 @@
       <c r="F113" s="17"/>
       <c r="G113" s="16"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -1836,7 +1863,7 @@
       <c r="F114" s="17"/>
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -1845,7 +1872,7 @@
       <c r="F115" s="17"/>
       <c r="G115" s="16"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -1854,7 +1881,7 @@
       <c r="F116" s="17"/>
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -1863,7 +1890,7 @@
       <c r="F117" s="17"/>
       <c r="G117" s="16"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -1872,7 +1899,7 @@
       <c r="F118" s="17"/>
       <c r="G118" s="16"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -1881,7 +1908,7 @@
       <c r="F119" s="17"/>
       <c r="G119" s="16"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -1890,7 +1917,7 @@
       <c r="F120" s="17"/>
       <c r="G120" s="16"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -1899,7 +1926,7 @@
       <c r="F121" s="17"/>
       <c r="G121" s="16"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -1908,7 +1935,7 @@
       <c r="F122" s="17"/>
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -1917,7 +1944,7 @@
       <c r="F123" s="17"/>
       <c r="G123" s="16"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -1926,7 +1953,7 @@
       <c r="F124" s="17"/>
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -1935,7 +1962,7 @@
       <c r="F125" s="17"/>
       <c r="G125" s="16"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -1944,7 +1971,7 @@
       <c r="F126" s="17"/>
       <c r="G126" s="16"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -1953,7 +1980,7 @@
       <c r="F127" s="17"/>
       <c r="G127" s="16"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -1962,7 +1989,7 @@
       <c r="F128" s="17"/>
       <c r="G128" s="16"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -1971,7 +1998,7 @@
       <c r="F129" s="17"/>
       <c r="G129" s="16"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -1980,7 +2007,7 @@
       <c r="F130" s="17"/>
       <c r="G130" s="16"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -1989,7 +2016,7 @@
       <c r="F131" s="17"/>
       <c r="G131" s="16"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -1998,7 +2025,7 @@
       <c r="F132" s="17"/>
       <c r="G132" s="16"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -2007,7 +2034,7 @@
       <c r="F133" s="17"/>
       <c r="G133" s="16"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -2016,7 +2043,7 @@
       <c r="F134" s="17"/>
       <c r="G134" s="16"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -2025,7 +2052,7 @@
       <c r="F135" s="17"/>
       <c r="G135" s="16"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -2034,7 +2061,7 @@
       <c r="F136" s="17"/>
       <c r="G136" s="16"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="18"/>
       <c r="C137" s="11"/>
@@ -2043,7 +2070,7 @@
       <c r="F137" s="11"/>
       <c r="G137" s="16"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -2052,7 +2079,7 @@
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -2061,7 +2088,7 @@
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
     </row>
-    <row r="140" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A140" s="11"/>
       <c r="B140" s="12"/>
       <c r="C140" s="11"/>
@@ -2070,7 +2097,7 @@
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -2079,7 +2106,7 @@
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
     </row>
-    <row r="142" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -2088,7 +2115,7 @@
       <c r="F142" s="14"/>
       <c r="G142" s="14"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -2097,7 +2124,7 @@
       <c r="F143" s="16"/>
       <c r="G143" s="16"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -2106,7 +2133,7 @@
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -2115,7 +2142,7 @@
       <c r="F145" s="16"/>
       <c r="G145" s="16"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -2124,7 +2151,7 @@
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -2133,7 +2160,7 @@
       <c r="F147" s="16"/>
       <c r="G147" s="16"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -2142,7 +2169,7 @@
       <c r="F148" s="17"/>
       <c r="G148" s="16"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -2151,7 +2178,7 @@
       <c r="F149" s="17"/>
       <c r="G149" s="16"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -2160,7 +2187,7 @@
       <c r="F150" s="17"/>
       <c r="G150" s="16"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -2169,7 +2196,7 @@
       <c r="F151" s="17"/>
       <c r="G151" s="16"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -2178,7 +2205,7 @@
       <c r="F152" s="17"/>
       <c r="G152" s="16"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -2187,7 +2214,7 @@
       <c r="F153" s="17"/>
       <c r="G153" s="16"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -2196,7 +2223,7 @@
       <c r="F154" s="17"/>
       <c r="G154" s="16"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -2205,7 +2232,7 @@
       <c r="F155" s="17"/>
       <c r="G155" s="16"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -2214,7 +2241,7 @@
       <c r="F156" s="17"/>
       <c r="G156" s="16"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -2223,7 +2250,7 @@
       <c r="F157" s="17"/>
       <c r="G157" s="16"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -2232,7 +2259,7 @@
       <c r="F158" s="17"/>
       <c r="G158" s="16"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -2241,7 +2268,7 @@
       <c r="F159" s="17"/>
       <c r="G159" s="16"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -2250,7 +2277,7 @@
       <c r="F160" s="17"/>
       <c r="G160" s="16"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -2259,7 +2286,7 @@
       <c r="F161" s="17"/>
       <c r="G161" s="16"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -2268,7 +2295,7 @@
       <c r="F162" s="17"/>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -2277,7 +2304,7 @@
       <c r="F163" s="17"/>
       <c r="G163" s="16"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -2286,7 +2313,7 @@
       <c r="F164" s="17"/>
       <c r="G164" s="16"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -2295,7 +2322,7 @@
       <c r="F165" s="17"/>
       <c r="G165" s="16"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -2304,7 +2331,7 @@
       <c r="F166" s="17"/>
       <c r="G166" s="16"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -2313,7 +2340,7 @@
       <c r="F167" s="17"/>
       <c r="G167" s="16"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -2322,7 +2349,7 @@
       <c r="F168" s="17"/>
       <c r="G168" s="16"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -2331,7 +2358,7 @@
       <c r="F169" s="17"/>
       <c r="G169" s="16"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -2340,7 +2367,7 @@
       <c r="F170" s="17"/>
       <c r="G170" s="16"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -2349,7 +2376,7 @@
       <c r="F171" s="17"/>
       <c r="G171" s="16"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -2358,7 +2385,7 @@
       <c r="F172" s="17"/>
       <c r="G172" s="16"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -2367,7 +2394,7 @@
       <c r="F173" s="17"/>
       <c r="G173" s="16"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -2376,7 +2403,7 @@
       <c r="F174" s="17"/>
       <c r="G174" s="16"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -2385,7 +2412,7 @@
       <c r="F175" s="17"/>
       <c r="G175" s="16"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -2394,7 +2421,7 @@
       <c r="F176" s="17"/>
       <c r="G176" s="16"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -2403,7 +2430,7 @@
       <c r="F177" s="17"/>
       <c r="G177" s="16"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -2412,7 +2439,7 @@
       <c r="F178" s="17"/>
       <c r="G178" s="16"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -2421,7 +2448,7 @@
       <c r="F179" s="17"/>
       <c r="G179" s="16"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -2430,7 +2457,7 @@
       <c r="F180" s="17"/>
       <c r="G180" s="16"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -2439,7 +2466,7 @@
       <c r="F181" s="17"/>
       <c r="G181" s="16"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="18"/>
       <c r="C182" s="11"/>
@@ -2448,7 +2475,7 @@
       <c r="F182" s="11"/>
       <c r="G182" s="16"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -2457,7 +2484,7 @@
       <c r="F183" s="11"/>
       <c r="G183" s="11"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -2466,7 +2493,7 @@
       <c r="F184" s="11"/>
       <c r="G184" s="11"/>
     </row>
-    <row r="185" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A185" s="11"/>
       <c r="B185" s="12"/>
       <c r="C185" s="11"/>
@@ -2475,7 +2502,7 @@
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -2484,7 +2511,7 @@
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
     </row>
-    <row r="187" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -2493,7 +2520,7 @@
       <c r="F187" s="14"/>
       <c r="G187" s="14"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -2502,7 +2529,7 @@
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -2511,7 +2538,7 @@
       <c r="F189" s="16"/>
       <c r="G189" s="16"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -2520,7 +2547,7 @@
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -2529,7 +2556,7 @@
       <c r="F191" s="17"/>
       <c r="G191" s="16"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -2538,7 +2565,7 @@
       <c r="F192" s="17"/>
       <c r="G192" s="16"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -2547,7 +2574,7 @@
       <c r="F193" s="17"/>
       <c r="G193" s="16"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -2556,7 +2583,7 @@
       <c r="F194" s="17"/>
       <c r="G194" s="16"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -2565,7 +2592,7 @@
       <c r="F195" s="17"/>
       <c r="G195" s="16"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -2574,7 +2601,7 @@
       <c r="F196" s="17"/>
       <c r="G196" s="16"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -2583,7 +2610,7 @@
       <c r="F197" s="17"/>
       <c r="G197" s="16"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -2592,7 +2619,7 @@
       <c r="F198" s="17"/>
       <c r="G198" s="16"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -2601,7 +2628,7 @@
       <c r="F199" s="17"/>
       <c r="G199" s="16"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -2610,7 +2637,7 @@
       <c r="F200" s="17"/>
       <c r="G200" s="16"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -2619,7 +2646,7 @@
       <c r="F201" s="17"/>
       <c r="G201" s="16"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="11"/>
       <c r="C202" s="11"/>
@@ -2628,7 +2655,7 @@
       <c r="F202" s="17"/>
       <c r="G202" s="16"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="11"/>
       <c r="C203" s="11"/>
@@ -2637,7 +2664,7 @@
       <c r="F203" s="17"/>
       <c r="G203" s="16"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="11"/>
       <c r="C204" s="11"/>
@@ -2646,7 +2673,7 @@
       <c r="F204" s="17"/>
       <c r="G204" s="16"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="11"/>
       <c r="C205" s="11"/>
@@ -2655,7 +2682,7 @@
       <c r="F205" s="17"/>
       <c r="G205" s="16"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="11"/>
       <c r="C206" s="11"/>
@@ -2664,7 +2691,7 @@
       <c r="F206" s="17"/>
       <c r="G206" s="16"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="11"/>
       <c r="C207" s="11"/>
@@ -2673,7 +2700,7 @@
       <c r="F207" s="17"/>
       <c r="G207" s="16"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="11"/>
       <c r="C208" s="11"/>
@@ -2682,7 +2709,7 @@
       <c r="F208" s="17"/>
       <c r="G208" s="16"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="11"/>
       <c r="C209" s="11"/>
@@ -2691,7 +2718,7 @@
       <c r="F209" s="17"/>
       <c r="G209" s="16"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="11"/>
       <c r="C210" s="11"/>
@@ -2700,7 +2727,7 @@
       <c r="F210" s="17"/>
       <c r="G210" s="16"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="11"/>
       <c r="C211" s="11"/>
@@ -2709,7 +2736,7 @@
       <c r="F211" s="17"/>
       <c r="G211" s="16"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="11"/>
       <c r="C212" s="11"/>
@@ -2718,7 +2745,7 @@
       <c r="F212" s="17"/>
       <c r="G212" s="16"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="11"/>
       <c r="C213" s="11"/>
@@ -2727,7 +2754,7 @@
       <c r="F213" s="17"/>
       <c r="G213" s="16"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="11"/>
       <c r="C214" s="11"/>
@@ -2736,7 +2763,7 @@
       <c r="F214" s="17"/>
       <c r="G214" s="16"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="11"/>
       <c r="C215" s="11"/>
@@ -2745,7 +2772,7 @@
       <c r="F215" s="17"/>
       <c r="G215" s="16"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="11"/>
       <c r="C216" s="11"/>
@@ -2754,7 +2781,7 @@
       <c r="F216" s="17"/>
       <c r="G216" s="16"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="11"/>
       <c r="C217" s="11"/>
@@ -2763,7 +2790,7 @@
       <c r="F217" s="17"/>
       <c r="G217" s="16"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="11"/>
       <c r="C218" s="11"/>
@@ -2772,7 +2799,7 @@
       <c r="F218" s="17"/>
       <c r="G218" s="16"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="11"/>
       <c r="C219" s="11"/>
@@ -2781,7 +2808,7 @@
       <c r="F219" s="17"/>
       <c r="G219" s="16"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="11"/>
       <c r="C220" s="11"/>
@@ -2790,7 +2817,7 @@
       <c r="F220" s="17"/>
       <c r="G220" s="16"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="11"/>
       <c r="C221" s="11"/>
@@ -2799,7 +2826,7 @@
       <c r="F221" s="17"/>
       <c r="G221" s="16"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="11"/>
       <c r="C222" s="11"/>
@@ -2808,31 +2835,31 @@
       <c r="F222" s="17"/>
       <c r="G222" s="16"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="11"/>
     </row>
   </sheetData>

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CDDBB4-09B2-4997-BE1A-6AF126C914A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0184D-8E5B-4799-A2CA-A6BF4E98C0E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Art</t>
   </si>
@@ -652,7 +652,7 @@
   <dimension ref="A2:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,11 +1037,27 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="34">
+        <v>43206</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="G20" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1263,7 +1279,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="20">
         <f>SUM(H7:H46)</f>
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D0184D-8E5B-4799-A2CA-A6BF4E98C0E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6990E9F-5EFA-4FBF-B502-A0B3F5C451E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Art</t>
   </si>
@@ -224,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -294,6 +294,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -652,7 +653,7 @@
   <dimension ref="A2:J231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1044,7 +1045,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="34">
-        <v>43206</v>
+        <v>43207</v>
       </c>
       <c r="E20" s="6">
         <v>0.45833333333333331</v>
@@ -1061,11 +1062,27 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="10">
+        <v>43208</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.52083333333333337</v>
+      </c>
       <c r="G21" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10416666666666669</v>
+      </c>
+      <c r="H21" s="35">
+        <v>2.5</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -1279,7 +1296,7 @@
       <c r="G47" s="9"/>
       <c r="H47" s="20">
         <f>SUM(H7:H46)</f>
-        <v>29.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">

--- a/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
+++ b/Dokumente/Zeiterfassung/Zeiterfassung_Aistleithner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aistl_000\Documents\GitHub\259035_SoftEngPR\Dokumente\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6990E9F-5EFA-4FBF-B502-A0B3F5C451E3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AAB2B3-259A-478C-84A6-AB564F0EB586}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -224,7 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -294,7 +294,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -652,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J231"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1081,7 +1080,7 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666669</v>
       </c>
-      <c r="H21" s="35">
+      <c r="H21" s="19">
         <v>2.5</v>
       </c>
     </row>
